--- a/Tratamento/src/Dados_limpos/novos/limpo_petlove_20251102_201211.xlsx
+++ b/Tratamento/src/Dados_limpos/novos/limpo_petlove_20251102_201211.xlsx
@@ -3585,7 +3585,7 @@
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>transdermal</t>
+          <t>plus</t>
         </is>
       </c>
     </row>
@@ -3817,7 +3817,7 @@
       </c>
       <c r="P58" t="inlineStr">
         <is>
-          <t>transdermal</t>
+          <t>plus</t>
         </is>
       </c>
     </row>
@@ -3875,7 +3875,7 @@
       </c>
       <c r="P59" t="inlineStr">
         <is>
-          <t>transdermal</t>
+          <t>plus</t>
         </is>
       </c>
     </row>
@@ -5325,7 +5325,7 @@
       </c>
       <c r="P84" t="inlineStr">
         <is>
-          <t>puppy</t>
+          <t>filhote</t>
         </is>
       </c>
     </row>
@@ -5557,7 +5557,7 @@
       </c>
       <c r="P88" t="inlineStr">
         <is>
-          <t>puppy</t>
+          <t>filhote</t>
         </is>
       </c>
     </row>
@@ -5615,7 +5615,7 @@
       </c>
       <c r="P89" t="inlineStr">
         <is>
-          <t>puppy</t>
+          <t>filhote</t>
         </is>
       </c>
     </row>
